--- a/reports/Testing.xlsx
+++ b/reports/Testing.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="46">
   <si>
     <t>Performance Report</t>
   </si>
@@ -130,6 +130,9 @@
     <t>30/09/2020</t>
   </si>
   <si>
+    <t>Working Day</t>
+  </si>
+  <si>
     <t>Kevel Kevel Kevel</t>
   </si>
   <si>
@@ -142,10 +145,10 @@
     <t>DhanpalRaj Singh Rajpurohit</t>
   </si>
   <si>
+    <t>Dhanpal Singh Rajpurohit</t>
+  </si>
+  <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>Dhanpal Singh Rajpurohit</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE11"/>
+  <dimension ref="A1:AH11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
@@ -570,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -664,290 +667,302 @@
       <c r="AE8" t="s">
         <v>38</v>
       </c>
+      <c r="AH8" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AB9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AD9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AE9" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="AH9">
+        <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AD10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE10" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="AH10">
+        <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AB11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AD11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AE11" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="AH11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Testing.xlsx
+++ b/reports/Testing.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="59">
   <si>
     <t>Performance Report</t>
   </si>
@@ -28,7 +28,7 @@
     <t>A =&gt; Absent</t>
   </si>
   <si>
-    <t>September Report</t>
+    <t>Attendance</t>
   </si>
   <si>
     <t>L =&gt; Late</t>
@@ -130,7 +130,49 @@
     <t>30/09/2020</t>
   </si>
   <si>
-    <t>Working Day</t>
+    <t>01/10/2020</t>
+  </si>
+  <si>
+    <t>02/10/2020</t>
+  </si>
+  <si>
+    <t>03/10/2020</t>
+  </si>
+  <si>
+    <t>04/10/2020</t>
+  </si>
+  <si>
+    <t>05/10/2020</t>
+  </si>
+  <si>
+    <t>06/10/2020</t>
+  </si>
+  <si>
+    <t>07/10/2020</t>
+  </si>
+  <si>
+    <t>08/10/2020</t>
+  </si>
+  <si>
+    <t>09/10/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>11/10/2020</t>
+  </si>
+  <si>
+    <t>12/10/2020</t>
+  </si>
+  <si>
+    <t>13/10/2020</t>
+  </si>
+  <si>
+    <t>14/10/2020</t>
+  </si>
+  <si>
+    <t>15/10/2020</t>
   </si>
   <si>
     <t>Kevel Kevel Kevel</t>
@@ -139,16 +181,13 @@
     <t>A</t>
   </si>
   <si>
-    <t>P</t>
+    <t>M</t>
   </si>
   <si>
     <t>DhanpalRaj Singh Rajpurohit</t>
   </si>
   <si>
     <t>Dhanpal Singh Rajpurohit</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
 </sst>
 </file>
@@ -525,7 +564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AT11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
@@ -573,7 +612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -667,302 +706,470 @@
       <c r="AE8" t="s">
         <v>38</v>
       </c>
+      <c r="AF8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>40</v>
+      </c>
       <c r="AH8" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="L9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="N9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="O9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="P9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="Q9" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="R9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="S9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="T9" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="U9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="V9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="W9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="X9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="Y9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="Z9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AA9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AB9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AC9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AD9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AE9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH9">
-        <v>5</v>
+        <v>56</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="L10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="N10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="O10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="P10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="Q10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="R10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="S10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="T10" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="U10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="W10" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="X10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="Y10" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="Z10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AA10" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="AB10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AC10" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="AD10" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="AE10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH10">
-        <v>7</v>
+        <v>56</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="L11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="N11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="O11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="P11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="Q11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="R11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="S11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="T11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="U11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="V11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="W11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="X11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="Y11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="Z11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AA11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AB11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AC11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AD11" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="AE11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH11">
-        <v>2</v>
+        <v>56</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
